--- a/结果/师兄SHAP指标分析_new.xlsx
+++ b/结果/师兄SHAP指标分析_new.xlsx
@@ -1251,8 +1251,8 @@
   </sheetPr>
   <dimension ref="A1:AC39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K16" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:AD29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.72727272727273" defaultRowHeight="17.5"/>
@@ -1472,11 +1472,17 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>8.665142067850867</v>
-      </c>
-      <c r="C3" s="0" t="n"/>
-      <c r="D3" s="0" t="n"/>
-      <c r="E3" s="0" t="n"/>
+        <v>0.9870155097185427</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>5.810713968395237</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1.999774880010963</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1.144731487926784</v>
+      </c>
       <c r="F3" s="0" t="n"/>
       <c r="G3" s="0" t="n"/>
       <c r="H3" s="0" t="n"/>
@@ -1509,11 +1515,17 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>40.27077479711669</v>
-      </c>
-      <c r="C4" s="0" t="n"/>
-      <c r="D4" s="0" t="n"/>
-      <c r="E4" s="0" t="n"/>
+        <v>17.01541395989216</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>8.834864934482718</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>14.35937584485899</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>19.45251347110594</v>
+      </c>
       <c r="F4" s="0" t="n"/>
       <c r="G4" s="0" t="n"/>
       <c r="H4" s="0" t="n"/>
@@ -1546,11 +1558,17 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>79.82900764056996</v>
-      </c>
-      <c r="C5" s="0" t="n"/>
-      <c r="D5" s="0" t="n"/>
-      <c r="E5" s="0" t="n"/>
+        <v>15.3500919387442</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>13.47201309799846</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>13.08296490840542</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>10.35528161112783</v>
+      </c>
       <c r="F5" s="0" t="n"/>
       <c r="G5" s="0" t="n"/>
       <c r="H5" s="0" t="n"/>
@@ -1583,11 +1601,17 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>56.01420275493609</v>
-      </c>
-      <c r="C6" s="0" t="n"/>
-      <c r="D6" s="0" t="n"/>
-      <c r="E6" s="0" t="n"/>
+        <v>4.645448258866343</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>6.447088328543567</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>7.546558314716027</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>4.49147099292046</v>
+      </c>
       <c r="F6" s="0" t="n"/>
       <c r="G6" s="0" t="n"/>
       <c r="H6" s="0" t="n"/>
@@ -1620,11 +1644,17 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>18.6424947230623</v>
-      </c>
-      <c r="C7" s="0" t="n"/>
-      <c r="D7" s="0" t="n"/>
-      <c r="E7" s="0" t="n"/>
+        <v>21.09983486370556</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>34.25187841897482</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>23.11308334476515</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>15.52292435394344</v>
+      </c>
       <c r="F7" s="0" t="n"/>
       <c r="G7" s="0" t="n"/>
       <c r="H7" s="0" t="n"/>
@@ -1657,11 +1687,17 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>7.379516812471185</v>
-      </c>
-      <c r="C8" s="0" t="n"/>
-      <c r="D8" s="0" t="n"/>
-      <c r="E8" s="0" t="n"/>
+        <v>6.776310530986743</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.8430546790071741</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>6.79691283481667</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>4.397907752831826</v>
+      </c>
       <c r="F8" s="0" t="n"/>
       <c r="G8" s="0" t="n"/>
       <c r="H8" s="0" t="n"/>
@@ -1697,11 +1733,17 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0.8258075631950008</v>
-      </c>
-      <c r="C10" s="0" t="n"/>
-      <c r="D10" s="0" t="n"/>
-      <c r="E10" s="0" t="n"/>
+        <v>7.342907779199829</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>4.48392663354195</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1.24312223899693</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>2.735163836061615</v>
+      </c>
       <c r="F10" s="0" t="n"/>
       <c r="G10" s="0" t="n"/>
       <c r="H10" s="0" t="n"/>
@@ -1734,11 +1776,17 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>6.210692568110109</v>
-      </c>
-      <c r="C11" s="0" t="n"/>
-      <c r="D11" s="0" t="n"/>
-      <c r="E11" s="0" t="n"/>
+        <v>3.040866083598937</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>11.93090963888855</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1.035149156570473</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>7.008914087508406</v>
+      </c>
       <c r="F11" s="0" t="n"/>
       <c r="G11" s="0" t="n"/>
       <c r="H11" s="0" t="n"/>
@@ -1774,11 +1822,17 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>8.524523428747077</v>
-      </c>
-      <c r="C13" s="0" t="n"/>
-      <c r="D13" s="0" t="n"/>
-      <c r="E13" s="0" t="n"/>
+        <v>10.94698320036941</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>40.49578606085156</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>74.33227378859274</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>27.34292813078395</v>
+      </c>
       <c r="F13" s="0" t="n"/>
       <c r="G13" s="0" t="n"/>
       <c r="H13" s="0" t="n"/>
@@ -1811,11 +1865,17 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>120.5891304718823</v>
-      </c>
-      <c r="C14" s="0" t="n"/>
-      <c r="D14" s="0" t="n"/>
-      <c r="E14" s="0" t="n"/>
+        <v>6.698626280494422</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>26.42228932542857</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>11.68490607712087</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>6.088139724127169</v>
+      </c>
       <c r="F14" s="0" t="n"/>
       <c r="G14" s="0" t="n"/>
       <c r="H14" s="0" t="n"/>
@@ -1851,11 +1911,17 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>16.89039781980704</v>
-      </c>
-      <c r="C16" s="0" t="n"/>
-      <c r="D16" s="0" t="n"/>
-      <c r="E16" s="0" t="n"/>
+        <v>20.54701724519149</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>15.01232363785679</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>4.566742820856551</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>20.01938786248616</v>
+      </c>
       <c r="F16" s="0" t="n"/>
       <c r="G16" s="0" t="n"/>
       <c r="H16" s="0" t="n"/>
@@ -1888,11 +1954,17 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>3.429132441304595</v>
-      </c>
-      <c r="C17" s="0" t="n"/>
-      <c r="D17" s="0" t="n"/>
-      <c r="E17" s="0" t="n"/>
+        <v>3.768671167989706</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>13.27735532579998</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>73.74526539269027</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>6.762933739050428</v>
+      </c>
       <c r="F17" s="0" t="n"/>
       <c r="G17" s="0" t="n"/>
       <c r="H17" s="0" t="n"/>
@@ -1925,11 +1997,17 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>8.588128240040939</v>
-      </c>
-      <c r="C18" s="0" t="n"/>
-      <c r="D18" s="0" t="n"/>
-      <c r="E18" s="0" t="n"/>
+        <v>15.41480117350371</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>3.167184761946106</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>2.40487731993925</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>5.721731323652443</v>
+      </c>
       <c r="F18" s="0" t="n"/>
       <c r="G18" s="0" t="n"/>
       <c r="H18" s="0" t="n"/>
@@ -1962,11 +2040,17 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>8.02826240887425</v>
-      </c>
-      <c r="C19" s="0" t="n"/>
-      <c r="D19" s="0" t="n"/>
-      <c r="E19" s="0" t="n"/>
+        <v>1.384539801991554</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>16.03187440264344</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>3.529671325961806</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>2.377878728142524</v>
+      </c>
       <c r="F19" s="0" t="n"/>
       <c r="G19" s="0" t="n"/>
       <c r="H19" s="0" t="n"/>
@@ -2002,11 +2086,17 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>6.462158605492744</v>
-      </c>
-      <c r="C21" s="0" t="n"/>
-      <c r="D21" s="0" t="n"/>
-      <c r="E21" s="0" t="n"/>
+        <v>0.642224633122442</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>3.951390568495173</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>1.930676850097791</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0.8420067078757612</v>
+      </c>
       <c r="F21" s="0" t="n"/>
       <c r="G21" s="0" t="n"/>
       <c r="H21" s="0" t="n"/>
@@ -2039,11 +2129,17 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>95.41435788233979</v>
-      </c>
-      <c r="C22" s="0" t="n"/>
-      <c r="D22" s="0" t="n"/>
-      <c r="E22" s="0" t="n"/>
+        <v>35.86375508799767</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>52.33991394214016</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>28.02742002619618</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>48.00358982875299</v>
+      </c>
       <c r="F22" s="0" t="n"/>
       <c r="G22" s="0" t="n"/>
       <c r="H22" s="0" t="n"/>
@@ -2076,11 +2172,17 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>1.531776915666126</v>
-      </c>
-      <c r="C23" s="0" t="n"/>
-      <c r="D23" s="0" t="n"/>
-      <c r="E23" s="0" t="n"/>
+        <v>15.37990739787904</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>7.111667764269558</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>7.470166005057466</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>3.080270474517758</v>
+      </c>
       <c r="F23" s="0" t="n"/>
       <c r="G23" s="0" t="n"/>
       <c r="H23" s="0" t="n"/>
@@ -2113,11 +2215,17 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>132.6960136424109</v>
-      </c>
-      <c r="C24" s="0" t="n"/>
-      <c r="D24" s="0" t="n"/>
-      <c r="E24" s="0" t="n"/>
+        <v>9.08775020023306</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>7.075269534199471</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>2.695969323659524</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>9.468543340977227</v>
+      </c>
       <c r="F24" s="0" t="n"/>
       <c r="G24" s="0" t="n"/>
       <c r="H24" s="0" t="n"/>
@@ -2153,11 +2261,17 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>5.715590377141522</v>
-      </c>
-      <c r="C26" s="0" t="n"/>
-      <c r="D26" s="0" t="n"/>
-      <c r="E26" s="0" t="n"/>
+        <v>1.872985280440076</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>13.17663904810443</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>4.728594833730089</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>1.989457429809285</v>
+      </c>
       <c r="F26" s="0" t="n"/>
       <c r="G26" s="0" t="n"/>
       <c r="H26" s="0" t="n"/>
@@ -2190,11 +2304,17 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>5.402252091481339</v>
-      </c>
-      <c r="C27" s="0" t="n"/>
-      <c r="D27" s="0" t="n"/>
-      <c r="E27" s="0" t="n"/>
+        <v>4.327978394845058</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>21.72011610920431</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>6.090238825390869</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>8.150929477325057</v>
+      </c>
       <c r="F27" s="0" t="n"/>
       <c r="G27" s="0" t="n"/>
       <c r="H27" s="0" t="n"/>

--- a/结果/师兄SHAP指标分析_new.xlsx
+++ b/结果/师兄SHAP指标分析_new.xlsx
@@ -1472,21 +1472,29 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
+        <v>8.817980992637171</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>47.71440031338944</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>21.06059373905795</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>7.201262076442788</v>
+      </c>
+      <c r="F3" s="0" t="n">
         <v>0.9870155097185427</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="G3" s="0" t="n">
         <v>5.810713968395237</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>1.999774880010963</v>
-      </c>
-      <c r="E3" s="0" t="n">
+      <c r="H3" s="0" t="n">
+        <v>1.890372951968109</v>
+      </c>
+      <c r="I3" s="0" t="n">
         <v>1.144731487926784</v>
       </c>
-      <c r="F3" s="0" t="n"/>
-      <c r="G3" s="0" t="n"/>
-      <c r="H3" s="0" t="n"/>
-      <c r="I3" s="0" t="n"/>
       <c r="J3" s="0" t="n"/>
       <c r="K3" s="0" t="n"/>
       <c r="L3" s="0" t="n"/>
@@ -1515,21 +1523,29 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>17.01541395989216</v>
+        <v>39.64125538717459</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>8.834864934482718</v>
+        <v>41.36937303865025</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>14.35937584485899</v>
+        <v>7.373770784216823</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>19.45251347110594</v>
-      </c>
-      <c r="F4" s="0" t="n"/>
-      <c r="G4" s="0" t="n"/>
-      <c r="H4" s="0" t="n"/>
-      <c r="I4" s="0" t="n"/>
+        <v>5.084132589672691</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>16.98834613834374</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>8.832453686864117</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>14.25086826423172</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>19.46684314993682</v>
+      </c>
       <c r="J4" s="0" t="n"/>
       <c r="K4" s="0" t="n"/>
       <c r="L4" s="0" t="n"/>
@@ -1558,21 +1574,29 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>15.3500919387442</v>
+        <v>80.04670857881244</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>13.47201309799846</v>
+        <v>31.52490943706081</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>13.08296490840542</v>
+        <v>45.3779440861185</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>10.35528161112783</v>
-      </c>
-      <c r="F5" s="0" t="n"/>
-      <c r="G5" s="0" t="n"/>
-      <c r="H5" s="0" t="n"/>
-      <c r="I5" s="0" t="n"/>
+        <v>19.44792410273654</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>15.3505663952542</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>13.47221154267288</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>12.95769530545416</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>10.38329286324089</v>
+      </c>
       <c r="J5" s="0" t="n"/>
       <c r="K5" s="0" t="n"/>
       <c r="L5" s="0" t="n"/>
@@ -1601,21 +1625,29 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
+        <v>55.45434596516724</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>15.81891256840562</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>6.298440939844743</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>6.04687370029595</v>
+      </c>
+      <c r="F6" s="0" t="n">
         <v>4.645448258866343</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="G6" s="0" t="n">
         <v>6.447088328543567</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>7.546558314716027</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>4.49147099292046</v>
-      </c>
-      <c r="F6" s="0" t="n"/>
-      <c r="G6" s="0" t="n"/>
-      <c r="H6" s="0" t="n"/>
-      <c r="I6" s="0" t="n"/>
+      <c r="H6" s="0" t="n">
+        <v>7.524025619212582</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>4.491506370305101</v>
+      </c>
       <c r="J6" s="0" t="n"/>
       <c r="K6" s="0" t="n"/>
       <c r="L6" s="0" t="n"/>
@@ -1644,21 +1676,29 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>21.09983486370556</v>
+        <v>18.73549447906966</v>
       </c>
       <c r="C7" s="0" t="n">
+        <v>28.2560068154461</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>8.613765449981214</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>25.77312523183275</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>21.09981533880771</v>
+      </c>
+      <c r="G7" s="0" t="n">
         <v>34.25187841897482</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>23.11308334476515</v>
-      </c>
-      <c r="E7" s="0" t="n">
+      <c r="H7" s="0" t="n">
+        <v>23.42215491259757</v>
+      </c>
+      <c r="I7" s="0" t="n">
         <v>15.52292435394344</v>
       </c>
-      <c r="F7" s="0" t="n"/>
-      <c r="G7" s="0" t="n"/>
-      <c r="H7" s="0" t="n"/>
-      <c r="I7" s="0" t="n"/>
       <c r="J7" s="0" t="n"/>
       <c r="K7" s="0" t="n"/>
       <c r="L7" s="0" t="n"/>
@@ -1687,21 +1727,29 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>6.776310530986743</v>
+        <v>7.145004600706814</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0.8430546790071741</v>
+        <v>18.47255305762585</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>6.79691283481667</v>
+        <v>15.6293041252187</v>
       </c>
       <c r="E8" s="0" t="n">
+        <v>2.825973962245679</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>6.769981947517691</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0.8424414161118412</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>6.675809412832757</v>
+      </c>
+      <c r="I8" s="0" t="n">
         <v>4.397907752831826</v>
       </c>
-      <c r="F8" s="0" t="n"/>
-      <c r="G8" s="0" t="n"/>
-      <c r="H8" s="0" t="n"/>
-      <c r="I8" s="0" t="n"/>
       <c r="J8" s="0" t="n"/>
       <c r="K8" s="0" t="n"/>
       <c r="L8" s="0" t="n"/>
@@ -1733,21 +1781,29 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>7.342907779199829</v>
+        <v>0.7854544491572921</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>4.48392663354195</v>
+        <v>24.87307229052279</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1.24312223899693</v>
+        <v>38.41868847198413</v>
       </c>
       <c r="E10" s="0" t="n">
+        <v>0.1348142631521279</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>7.339286789593838</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>4.482191408346265</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>1.277710558493819</v>
+      </c>
+      <c r="I10" s="0" t="n">
         <v>2.735163836061615</v>
       </c>
-      <c r="F10" s="0" t="n"/>
-      <c r="G10" s="0" t="n"/>
-      <c r="H10" s="0" t="n"/>
-      <c r="I10" s="0" t="n"/>
       <c r="J10" s="0" t="n"/>
       <c r="K10" s="0" t="n"/>
       <c r="L10" s="0" t="n"/>
@@ -1776,21 +1832,29 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>3.040866083598937</v>
+        <v>5.584638049706733</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>11.93090963888855</v>
+        <v>22.94967050834627</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>1.035149156570473</v>
+        <v>4.682553853427723</v>
       </c>
       <c r="E11" s="0" t="n">
+        <v>27.82420142862586</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>3.040744464685814</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>11.93086203729469</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1.06069281147114</v>
+      </c>
+      <c r="I11" s="0" t="n">
         <v>7.008914087508406</v>
       </c>
-      <c r="F11" s="0" t="n"/>
-      <c r="G11" s="0" t="n"/>
-      <c r="H11" s="0" t="n"/>
-      <c r="I11" s="0" t="n"/>
       <c r="J11" s="0" t="n"/>
       <c r="K11" s="0" t="n"/>
       <c r="L11" s="0" t="n"/>
@@ -1822,21 +1886,29 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>10.94698320036941</v>
+        <v>8.602128783792946</v>
       </c>
       <c r="C13" s="0" t="n">
+        <v>13.61966704612238</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>13.24733042752565</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>14.62477467490591</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>10.94076912142013</v>
+      </c>
+      <c r="G13" s="0" t="n">
         <v>40.49578606085156</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>74.33227378859274</v>
-      </c>
-      <c r="E13" s="0" t="n">
+      <c r="H13" s="0" t="n">
+        <v>74.18512299839801</v>
+      </c>
+      <c r="I13" s="0" t="n">
         <v>27.34292813078395</v>
       </c>
-      <c r="F13" s="0" t="n"/>
-      <c r="G13" s="0" t="n"/>
-      <c r="H13" s="0" t="n"/>
-      <c r="I13" s="0" t="n"/>
       <c r="J13" s="0" t="n"/>
       <c r="K13" s="0" t="n"/>
       <c r="L13" s="0" t="n"/>
@@ -1865,21 +1937,29 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
+        <v>119.8942923385729</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>2.661744314859284</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>134.7950172178556</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>5.684006374432127</v>
+      </c>
+      <c r="F14" s="0" t="n">
         <v>6.698626280494422</v>
       </c>
-      <c r="C14" s="0" t="n">
-        <v>26.42228932542857</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>11.68490607712087</v>
-      </c>
-      <c r="E14" s="0" t="n">
+      <c r="G14" s="0" t="n">
+        <v>26.42480778247042</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>11.69757442759525</v>
+      </c>
+      <c r="I14" s="0" t="n">
         <v>6.088139724127169</v>
       </c>
-      <c r="F14" s="0" t="n"/>
-      <c r="G14" s="0" t="n"/>
-      <c r="H14" s="0" t="n"/>
-      <c r="I14" s="0" t="n"/>
       <c r="J14" s="0" t="n"/>
       <c r="K14" s="0" t="n"/>
       <c r="L14" s="0" t="n"/>
@@ -1911,21 +1991,29 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>20.54701724519149</v>
+        <v>17.48565274477856</v>
       </c>
       <c r="C16" s="0" t="n">
+        <v>7.059001527706957</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>4.421579351552123</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>34.14494107312689</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>20.55387844331555</v>
+      </c>
+      <c r="G16" s="0" t="n">
         <v>15.01232363785679</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>4.566742820856551</v>
-      </c>
-      <c r="E16" s="0" t="n">
+      <c r="H16" s="0" t="n">
+        <v>4.573415408933215</v>
+      </c>
+      <c r="I16" s="0" t="n">
         <v>20.01938786248616</v>
       </c>
-      <c r="F16" s="0" t="n"/>
-      <c r="G16" s="0" t="n"/>
-      <c r="H16" s="0" t="n"/>
-      <c r="I16" s="0" t="n"/>
       <c r="J16" s="0" t="n"/>
       <c r="K16" s="0" t="n"/>
       <c r="L16" s="0" t="n"/>
@@ -1954,21 +2042,29 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
+        <v>3.519841156735388</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>70.90027260757371</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>63.05083811484315</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>7.192872497676626</v>
+      </c>
+      <c r="F17" s="0" t="n">
         <v>3.768671167989706</v>
       </c>
-      <c r="C17" s="0" t="n">
-        <v>13.27735532579998</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>73.74526539269027</v>
-      </c>
-      <c r="E17" s="0" t="n">
+      <c r="G17" s="0" t="n">
+        <v>13.27759397725112</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>73.65857890371748</v>
+      </c>
+      <c r="I17" s="0" t="n">
         <v>6.762933739050428</v>
       </c>
-      <c r="F17" s="0" t="n"/>
-      <c r="G17" s="0" t="n"/>
-      <c r="H17" s="0" t="n"/>
-      <c r="I17" s="0" t="n"/>
       <c r="J17" s="0" t="n"/>
       <c r="K17" s="0" t="n"/>
       <c r="L17" s="0" t="n"/>
@@ -1997,21 +2093,29 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
+        <v>8.310759910551031</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>32.459484036978</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>42.29849613581249</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>13.27657677298675</v>
+      </c>
+      <c r="F18" s="0" t="n">
         <v>15.41480117350371</v>
       </c>
-      <c r="C18" s="0" t="n">
-        <v>3.167184761946106</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>2.40487731993925</v>
-      </c>
-      <c r="E18" s="0" t="n">
+      <c r="G18" s="0" t="n">
+        <v>3.168019551139445</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>2.395165742050081</v>
+      </c>
+      <c r="I18" s="0" t="n">
         <v>5.721731323652443</v>
       </c>
-      <c r="F18" s="0" t="n"/>
-      <c r="G18" s="0" t="n"/>
-      <c r="H18" s="0" t="n"/>
-      <c r="I18" s="0" t="n"/>
       <c r="J18" s="0" t="n"/>
       <c r="K18" s="0" t="n"/>
       <c r="L18" s="0" t="n"/>
@@ -2040,21 +2144,29 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
+        <v>7.778786833838105</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>7.941018664255012</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>21.0688872604615</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>2.90020698880501</v>
+      </c>
+      <c r="F19" s="0" t="n">
         <v>1.384539801991554</v>
       </c>
-      <c r="C19" s="0" t="n">
-        <v>16.03187440264344</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>3.529671325961806</v>
-      </c>
-      <c r="E19" s="0" t="n">
+      <c r="G19" s="0" t="n">
+        <v>16.03253527116232</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>3.521216655857078</v>
+      </c>
+      <c r="I19" s="0" t="n">
         <v>2.377878728142524</v>
       </c>
-      <c r="F19" s="0" t="n"/>
-      <c r="G19" s="0" t="n"/>
-      <c r="H19" s="0" t="n"/>
-      <c r="I19" s="0" t="n"/>
       <c r="J19" s="0" t="n"/>
       <c r="K19" s="0" t="n"/>
       <c r="L19" s="0" t="n"/>
@@ -2086,21 +2198,29 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
+        <v>6.31847500636424</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>118.1412370676944</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>23.29698876855578</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>41.50951228951664</v>
+      </c>
+      <c r="F21" s="0" t="n">
         <v>0.642224633122442</v>
       </c>
-      <c r="C21" s="0" t="n">
-        <v>3.951390568495173</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>1.930676850097791</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>0.8420067078757612</v>
-      </c>
-      <c r="F21" s="0" t="n"/>
-      <c r="G21" s="0" t="n"/>
-      <c r="H21" s="0" t="n"/>
-      <c r="I21" s="0" t="n"/>
+      <c r="G21" s="0" t="n">
+        <v>3.950735652725279</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>1.931032921596356</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>0.8420131492994637</v>
+      </c>
       <c r="J21" s="0" t="n"/>
       <c r="K21" s="0" t="n"/>
       <c r="L21" s="0" t="n"/>
@@ -2129,21 +2249,29 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>35.86375508799767</v>
+        <v>95.88012147109991</v>
       </c>
       <c r="C22" s="0" t="n">
+        <v>28.78170898565531</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>30.80429581882089</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>51.52086229153435</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>35.87176887120781</v>
+      </c>
+      <c r="G22" s="0" t="n">
         <v>52.33991394214016</v>
       </c>
-      <c r="D22" s="0" t="n">
-        <v>28.02742002619618</v>
-      </c>
-      <c r="E22" s="0" t="n">
+      <c r="H22" s="0" t="n">
+        <v>28.07881881378306</v>
+      </c>
+      <c r="I22" s="0" t="n">
         <v>48.00358982875299</v>
       </c>
-      <c r="F22" s="0" t="n"/>
-      <c r="G22" s="0" t="n"/>
-      <c r="H22" s="0" t="n"/>
-      <c r="I22" s="0" t="n"/>
       <c r="J22" s="0" t="n"/>
       <c r="K22" s="0" t="n"/>
       <c r="L22" s="0" t="n"/>
@@ -2172,21 +2300,29 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>15.37990739787904</v>
+        <v>1.503237076351629</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>7.111667764269558</v>
+        <v>10.72058404036327</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>7.470166005057466</v>
+        <v>8.365979788513172</v>
       </c>
       <c r="E23" s="0" t="n">
+        <v>7.060680338284741</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>15.3806166638198</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>7.112168667539871</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>7.457011712742604</v>
+      </c>
+      <c r="I23" s="0" t="n">
         <v>3.080270474517758</v>
       </c>
-      <c r="F23" s="0" t="n"/>
-      <c r="G23" s="0" t="n"/>
-      <c r="H23" s="0" t="n"/>
-      <c r="I23" s="0" t="n"/>
       <c r="J23" s="0" t="n"/>
       <c r="K23" s="0" t="n"/>
       <c r="L23" s="0" t="n"/>
@@ -2215,21 +2351,29 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>9.08775020023306</v>
+        <v>132.5882646564919</v>
       </c>
       <c r="C24" s="0" t="n">
+        <v>15.86632352441468</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>42.26715010489905</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>45.79455765570113</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>9.090815252456721</v>
+      </c>
+      <c r="G24" s="0" t="n">
         <v>7.075269534199471</v>
       </c>
-      <c r="D24" s="0" t="n">
-        <v>2.695969323659524</v>
-      </c>
-      <c r="E24" s="0" t="n">
+      <c r="H24" s="0" t="n">
+        <v>2.900086694435271</v>
+      </c>
+      <c r="I24" s="0" t="n">
         <v>9.468543340977227</v>
       </c>
-      <c r="F24" s="0" t="n"/>
-      <c r="G24" s="0" t="n"/>
-      <c r="H24" s="0" t="n"/>
-      <c r="I24" s="0" t="n"/>
       <c r="J24" s="0" t="n"/>
       <c r="K24" s="0" t="n"/>
       <c r="L24" s="0" t="n"/>
@@ -2261,21 +2405,29 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>1.872985280440076</v>
+        <v>5.941094403663784</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>13.17663904810443</v>
+        <v>38.80424629106331</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>4.728594833730089</v>
+        <v>14.69833571559482</v>
       </c>
       <c r="E26" s="0" t="n">
+        <v>68.47991812176177</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>1.872986456638033</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>13.17794838056294</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>4.730586141180896</v>
+      </c>
+      <c r="I26" s="0" t="n">
         <v>1.989457429809285</v>
       </c>
-      <c r="F26" s="0" t="n"/>
-      <c r="G26" s="0" t="n"/>
-      <c r="H26" s="0" t="n"/>
-      <c r="I26" s="0" t="n"/>
       <c r="J26" s="0" t="n"/>
       <c r="K26" s="0" t="n"/>
       <c r="L26" s="0" t="n"/>
@@ -2304,21 +2456,29 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
+        <v>4.821171378928242</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>16.57574876810713</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>27.8033558780164</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>55.87789476588534</v>
+      </c>
+      <c r="F27" s="0" t="n">
         <v>4.327978394845058</v>
       </c>
-      <c r="C27" s="0" t="n">
-        <v>21.72011610920431</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>6.090238825390869</v>
-      </c>
-      <c r="E27" s="0" t="n">
+      <c r="G27" s="0" t="n">
+        <v>21.71907710830778</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>6.075377252582546</v>
+      </c>
+      <c r="I27" s="0" t="n">
         <v>8.150929477325057</v>
       </c>
-      <c r="F27" s="0" t="n"/>
-      <c r="G27" s="0" t="n"/>
-      <c r="H27" s="0" t="n"/>
-      <c r="I27" s="0" t="n"/>
       <c r="J27" s="0" t="n"/>
       <c r="K27" s="0" t="n"/>
       <c r="L27" s="0" t="n"/>
